--- a/biology/Botanique/Gnaphalium_uliginosum/Gnaphalium_uliginosum.xlsx
+++ b/biology/Botanique/Gnaphalium_uliginosum/Gnaphalium_uliginosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Gnaphale des mares ou Gnaphale des marais[1], Gnaphalium uliginosum  est une espèce de plantes à fleurs de la famille des Asteraceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gnaphale des mares ou Gnaphale des marais, Gnaphalium uliginosum  est une espèce de plantes à fleurs de la famille des Asteraceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dasyanthus uliginosus (L.) Bubani
 Filaginella nuda Opiz
@@ -543,7 +557,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce pionnière des milieux exondés et perturbés ou ponctuellement humides (ornières, rives, berges de réservoirs vides, mares plus ou moins exondées, etc.), relativement commune de 0 à 400 m en zone européenne tempérée, mais absente du pourtour méditerranéen.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plantes annuelles d'aspect général cotonneux qui donne un aspect légèrement argenté et vert pâle à la plante.
 Hauteur : 5 à 20 cm.
@@ -607,10 +625,12 @@
           <t>Statut, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme menacée et est classée en préoccupation mineure (LC) par l'UICN au niveau français.
-Elle est toutefois localement rare ou devenue rare et vulnérable (à cause de la régression des zones humides et de l'eutrophisation générale des milieux). Elle est protégée dans les Hautes-Alpes et en région Provence-Alpes-Côte d'Azur[2].
+Elle est toutefois localement rare ou devenue rare et vulnérable (à cause de la régression des zones humides et de l'eutrophisation générale des milieux). Elle est protégée dans les Hautes-Alpes et en région Provence-Alpes-Côte d'Azur.
 </t>
         </is>
       </c>
